--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_31.07.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1490 +505,1776 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731411262.8440962</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731411268.1861103</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411262.8440962.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731411268.1861103.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.29</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.74</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731411279.3225048</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731411282.3538094</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731411279.3225048.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731411282.3538094.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>133.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>133.21</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731411302.9218605</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731411307.4314437</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411302.9218605.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411307.4314437.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6782</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6792</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731411308.7430034</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731411309.9150171</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411308.7430034.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731411309.9150171.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6810</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6775</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>35</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731411311.6345885</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731411311.6345885.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731411311.6345885.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6741.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>6741.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>6747.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731411324.3117924</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731411328.577357</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731411324.3117924.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731411328.577357.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>510.55</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>513.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>3.050000000000011</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731411328.8265727</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731411330.6360407</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731411328.8265727.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731411330.6360407.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>516</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>513.1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.899999999999977</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731411343.6080296</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731411349.6019235</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411343.6080296.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731411349.6019235.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1040.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1045.6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731411370.3649945</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731411370.3649945.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731411370.3649945.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>11.922</v>
       </c>
-      <c r="J11" t="n">
-        <v>11.922</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.06300000000000061</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731411381.7678063</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731411385.9211164</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411381.7678063.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411385.9211164.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>128</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731411386.5055983</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731411394.4656122</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411386.5055983.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731411394.4656122.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>128.58</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.66</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.079999999999984</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731411401.7737744</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731411406.7939143</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411401.7737744.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411406.7939143.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>165</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>165.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731411407.4947267</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731411408.4801075</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411407.4947267.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731411408.4801075.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>166.76</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>165.12</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.639999999999986</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731411418.4645448</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731411418.4645448.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731411418.4645448.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>165.64</v>
       </c>
-      <c r="J16" t="n">
-        <v>165.64</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.04000000000002046</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731411421.085133</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731411427.37558</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731411421.085133.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731411427.37558.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>51.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>51.24</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.05999999999999517</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731411431.6659548</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731411431.6659548.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731411431.6659548.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>50.61</v>
       </c>
-      <c r="J18" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731411443.3692532</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731411446.813437</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731411443.3692532.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731411446.813437.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1418.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1421</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731411454.522452</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731411456.3638425</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731411454.522452.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731411456.3638425.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1412.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1415.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>3.399999999999864</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731411457.453729</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731411457.453729.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731411457.453729.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1416.8</v>
       </c>
-      <c r="J21" t="n">
-        <v>1416.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731411458.0138469</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731411461.0303297</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411458.0138469.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411461.0303297.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>61.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>60.89</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731411472.3848956</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731411475.2934601</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411472.3848956.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731411475.2934601.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>60.55</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>60.77</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.220000000000006</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731411493.5213678</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731411493.5213678.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731411493.5213678.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>58.26</v>
       </c>
-      <c r="J24" t="n">
-        <v>58.26</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.5399999999999991</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731411494.8168626</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731411496.9757998</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731411494.8168626.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731411496.9757998.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>142.48</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>142.06</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731411503.2168171</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731411508.2456577</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731411503.2168171.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731411508.2456577.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>143.56</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>143.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731411523.1947398</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731411523.1947398.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731411523.1947398.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>84.81999999999999</v>
       </c>
-      <c r="J27" t="n">
-        <v>84.81999999999999</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>84.88</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731411532.2833557</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731411535.2783337</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731411532.2833557.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731411535.2783337.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>376.74</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>373.48</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>3.259999999999991</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731411551.7547104</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731411552.771035</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/FEES1731411551.7547104.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/FEES1731411552.771035.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.0975</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.00068</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731411553.3227415</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731411557.3216085</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/FEES1731411553.3227415.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/FEES1731411557.3216085.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>0.09792000000000001</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.0002599999999999963</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731411558.3905067</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731411558.3905067.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731411558.3905067.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>0.099</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.0009199999999999903</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731411569.6149273</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731411575.0230155</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411569.6149273.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731411575.0230155.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>34.76</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>34.65</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731411588.8700488</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731411588.8700488.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731411588.8700488.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>34.64</v>
       </c>
-      <c r="J33" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2016,6 +2317,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2024,13 +2335,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.599999999999909</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.866666666666636</v>
+        <v>1.933333333333318</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -2040,13 +2357,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009399999999999964</v>
+        <v>2.000000000000612e-05</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003133333333333321</v>
+        <v>6.666666666668708e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -2056,13 +2379,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -2072,13 +2401,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.839999999999975</v>
+        <v>1.799999999999955</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.613333333333325</v>
+        <v>0.5999999999999849</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -2088,13 +2423,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05999999999999517</v>
+        <v>0.07000000000000739</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02999999999999758</v>
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2112,6 +2453,12 @@
       <c r="D7" t="n">
         <v>2.974999999999994</v>
       </c>
+      <c r="E7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2128,6 +2475,12 @@
       <c r="D8" t="n">
         <v>0.2399999999999949</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2144,6 +2497,12 @@
       <c r="D9" t="n">
         <v>-0.2399999999999949</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.3699999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2160,6 +2519,12 @@
       <c r="D10" t="n">
         <v>0.3150000000000013</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2168,13 +2533,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05499999999999972</v>
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
@@ -2184,13 +2555,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.5399999999999991</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.5399999999999991</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="13">
@@ -2208,6 +2585,12 @@
       <c r="D13" t="n">
         <v>0.4499999999999886</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2216,13 +2599,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2240,6 +2629,12 @@
       <c r="D15" t="n">
         <v>5</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2256,6 +2651,12 @@
       <c r="D16" t="n">
         <v>0.09000000000000341</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2264,13 +2665,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.06300000000000061</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.06300000000000061</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="18">
@@ -2288,6 +2695,12 @@
       <c r="D18" t="n">
         <v>3.259999999999991</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2302,6 +2715,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
